--- a/examples/custom_posterior_cov.xlsx
+++ b/examples/custom_posterior_cov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danycajas/Dropbox/GitHub/Riskfolio-Lib/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danycajas/Library/CloudStorage/Dropbox/GitHub/Riskfolio-Lib/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456BFEE2-A183-C34B-B548-68F8AC0DC6C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFF4DD-1E22-3644-ADD8-0C7674979B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="460" windowWidth="25760" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="760" windowWidth="25760" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +557,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,9 +620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -660,9 +660,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,26 +695,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,26 +730,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,271 +908,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2.23E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.07E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.86E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.02E-2</v>
+      </c>
+      <c r="I5">
+        <v>5.4100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.35E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I7">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="C2">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="E2">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="H2">
+      <c r="B9">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D9">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="I2">
-        <v>2.3199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="C3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.35E-2</v>
-      </c>
-      <c r="E3">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="H3">
+      <c r="E9">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="F9">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="I3">
-        <v>1.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>2.35E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.07E-2</v>
-      </c>
-      <c r="F4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G4">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="H4">
+      <c r="G9">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="I4">
-        <v>2.4199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.07E-2</v>
-      </c>
-      <c r="E5">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="F5">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="G5">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="H5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I5">
-        <v>2.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="G6">
-        <v>4.02E-2</v>
-      </c>
-      <c r="H6">
+      <c r="H9">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="I6">
-        <v>2.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="C7">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="E7">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>4.02E-2</v>
-      </c>
-      <c r="G7">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="I7">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="C8">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F8">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="G8">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="H8">
+      <c r="I9">
         <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="I8">
-        <v>2.5700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="D9">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="E9">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="G9">
-        <v>2.86E-2</v>
-      </c>
-      <c r="H9">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.23E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:S9">
+    <sortCondition ref="K2:K9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>